--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.sispada/modules/procurement/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21808E5F-AE76-C84F-AB3C-DBB1F2FE5A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C890C1B0-9C7C-F946-9E80-FABC4BBBA671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="500" windowWidth="16040" windowHeight="16940" xr2:uid="{9E51C9CF-B660-4A40-AFAC-63592C93A788}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="28320" windowHeight="21600" activeTab="2" xr2:uid="{9E51C9CF-B660-4A40-AFAC-63592C93A788}"/>
   </bookViews>
   <sheets>
     <sheet name="workunits" sheetId="1" r:id="rId1"/>
+    <sheet name="workgroups" sheetId="3" r:id="rId2"/>
+    <sheet name="biodatas" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">biodatas!$A$1:$E$57</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="291">
   <si>
     <t>No</t>
   </si>
@@ -476,13 +481,445 @@
   </si>
   <si>
     <t>KELURAHAN TIGARAKSA</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>BENI RACHMAT, SH</t>
+  </si>
+  <si>
+    <t>TEGUH SYAHRONI, SE, M.Si</t>
+  </si>
+  <si>
+    <t>FEBI FEBIANSYAH YUSUF, S.Ikom., M.Si</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FAJURI, ST, MM</t>
+  </si>
+  <si>
+    <t>BINSAR LEONARDUS SIMAMORA, S.Kom</t>
+  </si>
+  <si>
+    <t>MISBAH, S.Kep</t>
+  </si>
+  <si>
+    <t>DWI AGUS SETIABUDI, SKM.,M.Epid</t>
+  </si>
+  <si>
+    <t>BUNYAMIN, S.IP, M.I.P</t>
+  </si>
+  <si>
+    <t>HADINATA, S.Sos</t>
+  </si>
+  <si>
+    <t>ERVAN HARIZA YAHSAUNA, S.Sos</t>
+  </si>
+  <si>
+    <t>DENA ALFIANI, S.Hut, M.Si</t>
+  </si>
+  <si>
+    <t>PEPEN SUPENDI, S.Sos</t>
+  </si>
+  <si>
+    <t>REVVI HERLIEND, S.Si, MM</t>
+  </si>
+  <si>
+    <t>EDDY CHANDRA WIJAYA, S.T, MT</t>
+  </si>
+  <si>
+    <t>RAHARJO, S.IP</t>
+  </si>
+  <si>
+    <t>DERRY PRIBADI, ST</t>
+  </si>
+  <si>
+    <t>YUDI PERMADI, S.TP.</t>
+  </si>
+  <si>
+    <t>TITIK PEBRIYANTI, S.TP</t>
+  </si>
+  <si>
+    <t>FIRDAUS SINULINGGA, S.P</t>
+  </si>
+  <si>
+    <t>ANDRIKA ONGGOKUSUMO, S.E.</t>
+  </si>
+  <si>
+    <t>SAZLIZAL MUTTAQIEN, SE</t>
+  </si>
+  <si>
+    <t>IRFAN PRATAMA, S.E.</t>
+  </si>
+  <si>
+    <t>TRI OKTAVIANNY, S.E</t>
+  </si>
+  <si>
+    <t>ADHI TRENGGONO, SE</t>
+  </si>
+  <si>
+    <t>TEGUH SUKMA PRATAMA, S.E.</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ZAID RAMADHAN, S.E</t>
+  </si>
+  <si>
+    <t>GUNAWAN, SE</t>
+  </si>
+  <si>
+    <t>ELINA FIKADESTIANA, S.E</t>
+  </si>
+  <si>
+    <t>SHELLY STEVANI SUGIHARTO, S.E</t>
+  </si>
+  <si>
+    <t>ADE IMAM SUHAKIM, S.E.</t>
+  </si>
+  <si>
+    <t>NARSIAH, SE.</t>
+  </si>
+  <si>
+    <t>KUKUH IMANTO, S.E</t>
+  </si>
+  <si>
+    <t>ABDUL AZIZ, S.E.</t>
+  </si>
+  <si>
+    <t>FARADISA YULANSA, S.E</t>
+  </si>
+  <si>
+    <t>TRISA SUKMA ADASTRI, SE</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HARRY SUPRIYADI, S.ST</t>
+  </si>
+  <si>
+    <t>MUTIA EFENDY, SE</t>
+  </si>
+  <si>
+    <t>FEBRI RICANDRA, S.E</t>
+  </si>
+  <si>
+    <t>YOSUA, S.E</t>
+  </si>
+  <si>
+    <t>PERY PARASIA, SE</t>
+  </si>
+  <si>
+    <t>TIA ALPIANITA, S.E.</t>
+  </si>
+  <si>
+    <t>PUTRI RAMADHANI UTAMI, S.E</t>
+  </si>
+  <si>
+    <t>IRA RENLASRINARA, S.E.</t>
+  </si>
+  <si>
+    <t>IMAM HABIBI, S.E</t>
+  </si>
+  <si>
+    <t>RIZKI KHAERONI AL AZMI, S.E.</t>
+  </si>
+  <si>
+    <t>PUTRI KUMALA DEWI, S.E.</t>
+  </si>
+  <si>
+    <t>ALIM RAHMAN HAKIM, S.E.</t>
+  </si>
+  <si>
+    <t>FADLY JANUARDHI, S.E</t>
+  </si>
+  <si>
+    <t>ZAENUDIN, S.IP</t>
+  </si>
+  <si>
+    <t>YASIN</t>
+  </si>
+  <si>
+    <t>MULYANA</t>
+  </si>
+  <si>
+    <t>SIM WAWIH</t>
+  </si>
+  <si>
+    <t>IPA MUSTOPA</t>
+  </si>
+  <si>
+    <t>NYIMAS VEBY VIONITA</t>
+  </si>
+  <si>
+    <t>ASEP SEPTIAN FIRDAUS</t>
+  </si>
+  <si>
+    <t>FARIZ AHMAD TRIANA</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>Pembina Tingkat I (IV/b)</t>
+  </si>
+  <si>
+    <t>Pembina (IV/a)</t>
+  </si>
+  <si>
+    <t>Penata Tingkat I (III/d)</t>
+  </si>
+  <si>
+    <t>Penata (III/c)</t>
+  </si>
+  <si>
+    <t>Penata Muda Tingkat I (III/b)</t>
+  </si>
+  <si>
+    <t>Penata Muda (III/a)</t>
+  </si>
+  <si>
+    <t>Pengatur Tingkat I (II/d)</t>
+  </si>
+  <si>
+    <t>Pengatur (II/c)</t>
+  </si>
+  <si>
+    <t>Plt. Kepala Bagian Pengadaan Barang dan Jasa Setda</t>
+  </si>
+  <si>
+    <t>Kepala Subbagian Pengelolaan Pengadaan Barang dan Jasa</t>
+  </si>
+  <si>
+    <t>Kepala Subbagian Pembinaan dan Advokasi Pengadaan Barang dan Jasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kepala Subbagian Pengelolaan Layanan Pengadaan Secara Elektronik </t>
+  </si>
+  <si>
+    <t>Pengelola Pengadaan Barang/Jasa Madya</t>
+  </si>
+  <si>
+    <t>Pengelola Pengadaan Barang/Jasa Muda</t>
+  </si>
+  <si>
+    <t>Pengelola Pengadaan Barang/Jasa Pertama</t>
+  </si>
+  <si>
+    <t>Calon Jabatan Fungsional Ahli Pertama Pengelola Pengadaan Barang/Jasa</t>
+  </si>
+  <si>
+    <t>Penyusun Rencana Pengadaan Sarana dan Prasarana</t>
+  </si>
+  <si>
+    <t>Pengadministrasi Layanan Pengadaan Secara Elektronik</t>
+  </si>
+  <si>
+    <t>Pengadministrasi Umum</t>
+  </si>
+  <si>
+    <t>Non ASN</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>19701207 199803 1 005</t>
+  </si>
+  <si>
+    <t>19680206 200604 1 007</t>
+  </si>
+  <si>
+    <t>19840219 201101 1 002</t>
+  </si>
+  <si>
+    <t>19750314 200902 1 002</t>
+  </si>
+  <si>
+    <t>19780830 200604 1 007</t>
+  </si>
+  <si>
+    <t>19690706 199202 1 001</t>
+  </si>
+  <si>
+    <t>19750817 199403 1 001</t>
+  </si>
+  <si>
+    <t>19690513 199103 1 005</t>
+  </si>
+  <si>
+    <t>19800424 199912 1 001</t>
+  </si>
+  <si>
+    <t>19821112 200901 1 010</t>
+  </si>
+  <si>
+    <t>19830825 201001 2 011</t>
+  </si>
+  <si>
+    <t>19760718 199803 1 007</t>
+  </si>
+  <si>
+    <t>19800422 200501 2 012</t>
+  </si>
+  <si>
+    <t>19770210 201101 1 003</t>
+  </si>
+  <si>
+    <t>19800911 200801 1 003</t>
+  </si>
+  <si>
+    <t>19750907 201001 1 004</t>
+  </si>
+  <si>
+    <t>19840711 201001 1 014</t>
+  </si>
+  <si>
+    <t>19880217 201001 2 007</t>
+  </si>
+  <si>
+    <t>19820807 201101 1 002</t>
+  </si>
+  <si>
+    <t>19850122 202012 1 005</t>
+  </si>
+  <si>
+    <t>19850709 202012 1 008</t>
+  </si>
+  <si>
+    <t>19850911 202012 1 004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19851020 202012 2 003	</t>
+  </si>
+  <si>
+    <t>19851101 202012 1 004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19860523 202012 1 008	</t>
+  </si>
+  <si>
+    <t>19880425 202012 1 005</t>
+  </si>
+  <si>
+    <t>19881005 202012 1 010</t>
+  </si>
+  <si>
+    <t>19881224 202012 2 011</t>
+  </si>
+  <si>
+    <t>19890304 202012 2 009</t>
+  </si>
+  <si>
+    <t>19890913 202012 1 010</t>
+  </si>
+  <si>
+    <t>19900407 202012 2 011</t>
+  </si>
+  <si>
+    <t>19900418 202012 1 015</t>
+  </si>
+  <si>
+    <t>19900614 202012 1 009</t>
+  </si>
+  <si>
+    <t>19900622 202012 2 012</t>
+  </si>
+  <si>
+    <t>19910108 202012 2 011</t>
+  </si>
+  <si>
+    <t>19910512 202012 1 013</t>
+  </si>
+  <si>
+    <t>19921211 202012 2 026</t>
+  </si>
+  <si>
+    <t>19920227 202012 1 016</t>
+  </si>
+  <si>
+    <t>19930614 202012 1 008</t>
+  </si>
+  <si>
+    <t>19930821 202012 1 015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19941106 202012 2 016	</t>
+  </si>
+  <si>
+    <t>19960207 202012 2 024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19870913 202203 2 003	</t>
+  </si>
+  <si>
+    <t>19900708 202203 1 002</t>
+  </si>
+  <si>
+    <t>19920714 202203 1 004</t>
+  </si>
+  <si>
+    <t>19960712 202203 2 010</t>
+  </si>
+  <si>
+    <t>19961210 202203 1 010</t>
+  </si>
+  <si>
+    <t>19800114 201407 1 001</t>
+  </si>
+  <si>
+    <t>19750707 200701 1 015</t>
+  </si>
+  <si>
+    <t>19740521 200801 1 005</t>
+  </si>
+  <si>
+    <t>19681201 200701 1 012</t>
+  </si>
+  <si>
+    <t>19680814 201001 1 001</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>POKJA 1</t>
+  </si>
+  <si>
+    <t>POKJA 2</t>
+  </si>
+  <si>
+    <t>POKJA 3</t>
+  </si>
+  <si>
+    <t>POKJA 4</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>KABAG</t>
+  </si>
+  <si>
+    <t>KASUBAG</t>
+  </si>
+  <si>
+    <t>workgroup_id</t>
+  </si>
+  <si>
+    <t>POKJA</t>
+  </si>
+  <si>
+    <t>STAFF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -495,13 +932,48 @@
       <color theme="1"/>
       <name val="Fira Code Regular"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Fira Code Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Fira Code Regular"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -516,14 +988,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -835,7 +1322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1F9505-782D-B242-88BE-58BF0E2B8309}">
   <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2017,4 +2504,1268 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A25A07-38F1-A442-B251-E03267E02D46}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6C9AD9-8A15-F64D-9116-6D8C1F10B5C1}">
+  <dimension ref="A1:G57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G12" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G18" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G23" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="5" customFormat="1">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="6" customFormat="1">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G28" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G30" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="6" customFormat="1">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G37" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="4" customFormat="1">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.sispada/modules/procurement/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C890C1B0-9C7C-F946-9E80-FABC4BBBA671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94DADEF-B53E-1C4A-9558-62D2757687F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="28320" windowHeight="21600" activeTab="2" xr2:uid="{9E51C9CF-B660-4A40-AFAC-63592C93A788}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{9E51C9CF-B660-4A40-AFAC-63592C93A788}"/>
   </bookViews>
   <sheets>
     <sheet name="workunits" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">biodatas!$A$1:$E$57</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="292">
   <si>
     <t>No</t>
   </si>
@@ -660,66 +660,6 @@
     <t>section</t>
   </si>
   <si>
-    <t>Pembina Tingkat I (IV/b)</t>
-  </si>
-  <si>
-    <t>Pembina (IV/a)</t>
-  </si>
-  <si>
-    <t>Penata Tingkat I (III/d)</t>
-  </si>
-  <si>
-    <t>Penata (III/c)</t>
-  </si>
-  <si>
-    <t>Penata Muda Tingkat I (III/b)</t>
-  </si>
-  <si>
-    <t>Penata Muda (III/a)</t>
-  </si>
-  <si>
-    <t>Pengatur Tingkat I (II/d)</t>
-  </si>
-  <si>
-    <t>Pengatur (II/c)</t>
-  </si>
-  <si>
-    <t>Plt. Kepala Bagian Pengadaan Barang dan Jasa Setda</t>
-  </si>
-  <si>
-    <t>Kepala Subbagian Pengelolaan Pengadaan Barang dan Jasa</t>
-  </si>
-  <si>
-    <t>Kepala Subbagian Pembinaan dan Advokasi Pengadaan Barang dan Jasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kepala Subbagian Pengelolaan Layanan Pengadaan Secara Elektronik </t>
-  </si>
-  <si>
-    <t>Pengelola Pengadaan Barang/Jasa Madya</t>
-  </si>
-  <si>
-    <t>Pengelola Pengadaan Barang/Jasa Muda</t>
-  </si>
-  <si>
-    <t>Pengelola Pengadaan Barang/Jasa Pertama</t>
-  </si>
-  <si>
-    <t>Calon Jabatan Fungsional Ahli Pertama Pengelola Pengadaan Barang/Jasa</t>
-  </si>
-  <si>
-    <t>Penyusun Rencana Pengadaan Sarana dan Prasarana</t>
-  </si>
-  <si>
-    <t>Pengadministrasi Layanan Pengadaan Secara Elektronik</t>
-  </si>
-  <si>
-    <t>Pengadministrasi Umum</t>
-  </si>
-  <si>
-    <t>Non ASN</t>
-  </si>
-  <si>
     <t>position</t>
   </si>
   <si>
@@ -913,6 +853,69 @@
   </si>
   <si>
     <t>STAFF</t>
+  </si>
+  <si>
+    <t>PEMBINA TINGKAT I (IV/B)</t>
+  </si>
+  <si>
+    <t>PEMBINA (IV/A)</t>
+  </si>
+  <si>
+    <t>PENATA TINGKAT I (III/D)</t>
+  </si>
+  <si>
+    <t>PENATA (III/C)</t>
+  </si>
+  <si>
+    <t>PENATA MUDA TINGKAT I (III/B)</t>
+  </si>
+  <si>
+    <t>PENATA MUDA (III/A)</t>
+  </si>
+  <si>
+    <t>PENGATUR TINGKAT I (II/D)</t>
+  </si>
+  <si>
+    <t>PENGATUR (II/C)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PLT. KEPALA BAGIAN PENGADAAN BARANG DAN JASA SETDA</t>
+  </si>
+  <si>
+    <t>KEPALA SUBBAGIAN PENGELOLAAN PENGADAAN BARANG DAN JASA</t>
+  </si>
+  <si>
+    <t>KEPALA SUBBAGIAN PEMBINAAN DAN ADVOKASI PENGADAAN BARANG DAN JASA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEPALA SUBBAGIAN PENGELOLAAN LAYANAN PENGADAAN SECARA ELEKTRONIK </t>
+  </si>
+  <si>
+    <t>PENGELOLA PENGADAAN BARANG/JASA MADYA</t>
+  </si>
+  <si>
+    <t>PENGELOLA PENGADAAN BARANG/JASA MUDA</t>
+  </si>
+  <si>
+    <t>PENGELOLA PENGADAAN BARANG/JASA PERTAMA</t>
+  </si>
+  <si>
+    <t>CALON JABATAN FUNGSIONAL AHLI PERTAMA PENGELOLA PENGADAAN BARANG/JASA</t>
+  </si>
+  <si>
+    <t>PENYUSUN RENCANA PENGADAAN SARANA DAN PRASARANA</t>
+  </si>
+  <si>
+    <t>PENGADMINISTRASI LAYANAN PENGADAAN SECARA ELEKTRONIK</t>
+  </si>
+  <si>
+    <t>PENGADMINISTRASI UMUM</t>
+  </si>
+  <si>
+    <t>NON ASN</t>
   </si>
 </sst>
 </file>
@@ -1001,16 +1004,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2523,7 +2517,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>148</v>
@@ -2534,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2542,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2550,7 +2544,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2558,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2571,7 +2565,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2594,19 +2588,19 @@
         <v>148</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2617,16 +2611,16 @@
         <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2637,16 +2631,16 @@
         <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2657,16 +2651,16 @@
         <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>216</v>
+        <v>282</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2677,16 +2671,16 @@
         <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -2697,16 +2691,16 @@
         <v>153</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -2720,16 +2714,16 @@
         <v>154</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G7" s="5">
         <v>2</v>
@@ -2743,16 +2737,16 @@
         <v>155</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G8" s="7">
         <v>4</v>
@@ -2766,16 +2760,16 @@
         <v>156</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G9" s="6">
         <v>3</v>
@@ -2789,16 +2783,16 @@
         <v>157</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -2812,16 +2806,16 @@
         <v>158</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G11" s="6">
         <v>3</v>
@@ -2835,16 +2829,16 @@
         <v>159</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G12" s="7">
         <v>4</v>
@@ -2858,16 +2852,16 @@
         <v>160</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -2881,16 +2875,16 @@
         <v>161</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G14" s="5">
         <v>2</v>
@@ -2904,16 +2898,16 @@
         <v>162</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G15" s="5">
         <v>2</v>
@@ -2927,16 +2921,16 @@
         <v>163</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -2950,16 +2944,16 @@
         <v>164</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G17" s="6">
         <v>3</v>
@@ -2973,16 +2967,16 @@
         <v>165</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G18" s="7">
         <v>4</v>
@@ -2996,16 +2990,16 @@
         <v>166</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G19" s="5">
         <v>2</v>
@@ -3019,16 +3013,16 @@
         <v>167</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3039,16 +3033,16 @@
         <v>168</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3059,16 +3053,16 @@
         <v>169</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1">
@@ -3079,16 +3073,16 @@
         <v>170</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G23" s="7">
         <v>4</v>
@@ -3102,16 +3096,16 @@
         <v>171</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3122,16 +3116,16 @@
         <v>172</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1">
@@ -3142,16 +3136,16 @@
         <v>173</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G26" s="5">
         <v>2</v>
@@ -3165,16 +3159,16 @@
         <v>174</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1">
@@ -3185,16 +3179,16 @@
         <v>175</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G28" s="6">
         <v>3</v>
@@ -3208,16 +3202,16 @@
         <v>176</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1">
@@ -3228,16 +3222,16 @@
         <v>177</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G30" s="7">
         <v>4</v>
@@ -3251,16 +3245,16 @@
         <v>178</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3271,16 +3265,16 @@
         <v>179</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3291,16 +3285,16 @@
         <v>180</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3311,16 +3305,16 @@
         <v>181</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3331,16 +3325,16 @@
         <v>182</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3351,16 +3345,16 @@
         <v>183</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1">
@@ -3371,16 +3365,16 @@
         <v>184</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G37" s="6">
         <v>3</v>
@@ -3394,16 +3388,16 @@
         <v>185</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3414,16 +3408,16 @@
         <v>186</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1">
@@ -3434,16 +3428,16 @@
         <v>187</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
@@ -3457,16 +3451,16 @@
         <v>188</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3477,16 +3471,16 @@
         <v>189</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3497,16 +3491,16 @@
         <v>190</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3517,16 +3511,16 @@
         <v>191</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3537,16 +3531,16 @@
         <v>192</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3557,16 +3551,16 @@
         <v>193</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3577,16 +3571,16 @@
         <v>194</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3597,16 +3591,16 @@
         <v>195</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3617,16 +3611,16 @@
         <v>196</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3637,16 +3631,16 @@
         <v>197</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3657,16 +3651,16 @@
         <v>198</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3677,16 +3671,16 @@
         <v>199</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3697,16 +3691,16 @@
         <v>200</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3716,11 +3710,14 @@
       <c r="B54" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="E54" s="2" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3730,11 +3727,14 @@
       <c r="B55" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="E55" s="2" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3744,11 +3744,14 @@
       <c r="B56" s="2" t="s">
         <v>203</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="E56" s="2" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3758,11 +3761,14 @@
       <c r="B57" s="2" t="s">
         <v>204</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="E57" s="2" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.sispada/modules/procurement/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiasep/modules/procurement/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94DADEF-B53E-1C4A-9558-62D2757687F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FEEEC5-8D4F-E64D-9BF8-5B02807FFF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{9E51C9CF-B660-4A40-AFAC-63592C93A788}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{9E51C9CF-B660-4A40-AFAC-63592C93A788}"/>
   </bookViews>
   <sheets>
     <sheet name="workunits" sheetId="1" r:id="rId1"/>
     <sheet name="workgroups" sheetId="3" r:id="rId2"/>
     <sheet name="biodatas" sheetId="2" r:id="rId3"/>
+    <sheet name="workbios" sheetId="8" r:id="rId4"/>
+    <sheet name="documents" sheetId="6" r:id="rId5"/>
+    <sheet name="types" sheetId="4" r:id="rId6"/>
+    <sheet name="methods" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">biodatas!$A$1:$E$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">biodatas!$A$1:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="259">
   <si>
     <t>No</t>
   </si>
@@ -489,18 +493,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>BENI RACHMAT, SH</t>
-  </si>
-  <si>
     <t>TEGUH SYAHRONI, SE, M.Si</t>
   </si>
   <si>
-    <t>FEBI FEBIANSYAH YUSUF, S.Ikom., M.Si</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FAJURI, ST, MM</t>
-  </si>
-  <si>
     <t>BINSAR LEONARDUS SIMAMORA, S.Kom</t>
   </si>
   <si>
@@ -546,12 +541,6 @@
     <t>FIRDAUS SINULINGGA, S.P</t>
   </si>
   <si>
-    <t>ANDRIKA ONGGOKUSUMO, S.E.</t>
-  </si>
-  <si>
-    <t>SAZLIZAL MUTTAQIEN, SE</t>
-  </si>
-  <si>
     <t>IRFAN PRATAMA, S.E.</t>
   </si>
   <si>
@@ -579,18 +568,9 @@
     <t>ADE IMAM SUHAKIM, S.E.</t>
   </si>
   <si>
-    <t>NARSIAH, SE.</t>
-  </si>
-  <si>
     <t>KUKUH IMANTO, S.E</t>
   </si>
   <si>
-    <t>ABDUL AZIZ, S.E.</t>
-  </si>
-  <si>
-    <t>FARADISA YULANSA, S.E</t>
-  </si>
-  <si>
     <t>TRISA SUKMA ADASTRI, SE</t>
   </si>
   <si>
@@ -609,54 +589,6 @@
     <t>PERY PARASIA, SE</t>
   </si>
   <si>
-    <t>TIA ALPIANITA, S.E.</t>
-  </si>
-  <si>
-    <t>PUTRI RAMADHANI UTAMI, S.E</t>
-  </si>
-  <si>
-    <t>IRA RENLASRINARA, S.E.</t>
-  </si>
-  <si>
-    <t>IMAM HABIBI, S.E</t>
-  </si>
-  <si>
-    <t>RIZKI KHAERONI AL AZMI, S.E.</t>
-  </si>
-  <si>
-    <t>PUTRI KUMALA DEWI, S.E.</t>
-  </si>
-  <si>
-    <t>ALIM RAHMAN HAKIM, S.E.</t>
-  </si>
-  <si>
-    <t>FADLY JANUARDHI, S.E</t>
-  </si>
-  <si>
-    <t>ZAENUDIN, S.IP</t>
-  </si>
-  <si>
-    <t>YASIN</t>
-  </si>
-  <si>
-    <t>MULYANA</t>
-  </si>
-  <si>
-    <t>SIM WAWIH</t>
-  </si>
-  <si>
-    <t>IPA MUSTOPA</t>
-  </si>
-  <si>
-    <t>NYIMAS VEBY VIONITA</t>
-  </si>
-  <si>
-    <t>ASEP SEPTIAN FIRDAUS</t>
-  </si>
-  <si>
-    <t>FARIZ AHMAD TRIANA</t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
@@ -666,18 +598,9 @@
     <t>slug</t>
   </si>
   <si>
-    <t>19701207 199803 1 005</t>
-  </si>
-  <si>
     <t>19680206 200604 1 007</t>
   </si>
   <si>
-    <t>19840219 201101 1 002</t>
-  </si>
-  <si>
-    <t>19750314 200902 1 002</t>
-  </si>
-  <si>
     <t>19780830 200604 1 007</t>
   </si>
   <si>
@@ -723,12 +646,6 @@
     <t>19820807 201101 1 002</t>
   </si>
   <si>
-    <t>19850122 202012 1 005</t>
-  </si>
-  <si>
-    <t>19850709 202012 1 008</t>
-  </si>
-  <si>
     <t>19850911 202012 1 004</t>
   </si>
   <si>
@@ -756,18 +673,9 @@
     <t>19890913 202012 1 010</t>
   </si>
   <si>
-    <t>19900407 202012 2 011</t>
-  </si>
-  <si>
     <t>19900418 202012 1 015</t>
   </si>
   <si>
-    <t>19900614 202012 1 009</t>
-  </si>
-  <si>
-    <t>19900622 202012 2 012</t>
-  </si>
-  <si>
     <t>19910108 202012 2 011</t>
   </si>
   <si>
@@ -786,42 +694,6 @@
     <t>19930821 202012 1 015</t>
   </si>
   <si>
-    <t xml:space="preserve">19941106 202012 2 016	</t>
-  </si>
-  <si>
-    <t>19960207 202012 2 024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19870913 202203 2 003	</t>
-  </si>
-  <si>
-    <t>19900708 202203 1 002</t>
-  </si>
-  <si>
-    <t>19920714 202203 1 004</t>
-  </si>
-  <si>
-    <t>19960712 202203 2 010</t>
-  </si>
-  <si>
-    <t>19961210 202203 1 010</t>
-  </si>
-  <si>
-    <t>19800114 201407 1 001</t>
-  </si>
-  <si>
-    <t>19750707 200701 1 015</t>
-  </si>
-  <si>
-    <t>19740521 200801 1 005</t>
-  </si>
-  <si>
-    <t>19681201 200701 1 012</t>
-  </si>
-  <si>
-    <t>19680814 201001 1 001</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -849,80 +721,113 @@
     <t>workgroup_id</t>
   </si>
   <si>
-    <t>POKJA</t>
-  </si>
-  <si>
-    <t>STAFF</t>
-  </si>
-  <si>
-    <t>PEMBINA TINGKAT I (IV/B)</t>
-  </si>
-  <si>
-    <t>PEMBINA (IV/A)</t>
-  </si>
-  <si>
-    <t>PENATA TINGKAT I (III/D)</t>
-  </si>
-  <si>
-    <t>PENATA (III/C)</t>
-  </si>
-  <si>
-    <t>PENATA MUDA TINGKAT I (III/B)</t>
-  </si>
-  <si>
-    <t>PENATA MUDA (III/A)</t>
-  </si>
-  <si>
-    <t>PENGATUR TINGKAT I (II/D)</t>
-  </si>
-  <si>
-    <t>PENGATUR (II/C)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>PLT. KEPALA BAGIAN PENGADAAN BARANG DAN JASA SETDA</t>
-  </si>
-  <si>
-    <t>KEPALA SUBBAGIAN PENGELOLAAN PENGADAAN BARANG DAN JASA</t>
-  </si>
-  <si>
-    <t>KEPALA SUBBAGIAN PEMBINAAN DAN ADVOKASI PENGADAAN BARANG DAN JASA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEPALA SUBBAGIAN PENGELOLAAN LAYANAN PENGADAAN SECARA ELEKTRONIK </t>
-  </si>
-  <si>
-    <t>PENGELOLA PENGADAAN BARANG/JASA MADYA</t>
-  </si>
-  <si>
-    <t>PENGELOLA PENGADAAN BARANG/JASA MUDA</t>
-  </si>
-  <si>
-    <t>PENGELOLA PENGADAAN BARANG/JASA PERTAMA</t>
-  </si>
-  <si>
-    <t>CALON JABATAN FUNGSIONAL AHLI PERTAMA PENGELOLA PENGADAAN BARANG/JASA</t>
-  </si>
-  <si>
-    <t>PENYUSUN RENCANA PENGADAAN SARANA DAN PRASARANA</t>
-  </si>
-  <si>
-    <t>PENGADMINISTRASI LAYANAN PENGADAAN SECARA ELEKTRONIK</t>
-  </si>
-  <si>
-    <t>PENGADMINISTRASI UMUM</t>
-  </si>
-  <si>
-    <t>NON ASN</t>
+    <t>DIKECUALIKAN</t>
+  </si>
+  <si>
+    <t>E-PURCHASING</t>
+  </si>
+  <si>
+    <t>TENDER</t>
+  </si>
+  <si>
+    <t>TENDER-CEPAT</t>
+  </si>
+  <si>
+    <t>PENGADAAN-LANGSUNG</t>
+  </si>
+  <si>
+    <t>PENUNJUKAN-LANGSUNG</t>
+  </si>
+  <si>
+    <t>BARANG/JASA</t>
+  </si>
+  <si>
+    <t>KONSULTAN</t>
+  </si>
+  <si>
+    <t>KONSTRUKSI</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>SCREENSHOOT RUP</t>
+  </si>
+  <si>
+    <t>SALINAN DPA</t>
+  </si>
+  <si>
+    <t>DRAF RANCANGAN KONTRAK</t>
+  </si>
+  <si>
+    <t>KERANGKA ACUAN KERJA (KAK)</t>
+  </si>
+  <si>
+    <t>GAMBAR TEKNIS</t>
+  </si>
+  <si>
+    <t>HARGA PERKIRAAN SENDIRI (HPS)</t>
+  </si>
+  <si>
+    <t>RENCANA KESELAMATAN KONSTRUKSI (RKK)</t>
+  </si>
+  <si>
+    <t>RENCANA KERJA DAN SYARAT-SYARAT (RKS)</t>
+  </si>
+  <si>
+    <t>SK PEJABAT PEMBUAT KOMITMENT (PPK)</t>
+  </si>
+  <si>
+    <t>mime</t>
+  </si>
+  <si>
+    <t>application/pdf</t>
+  </si>
+  <si>
+    <t>maxsize</t>
+  </si>
+  <si>
+    <t>ppbj</t>
+  </si>
+  <si>
+    <t>Pembina (IV/a)</t>
+  </si>
+  <si>
+    <t>Kepala Bagian Pengadaan Barang dan Jasa Setda</t>
+  </si>
+  <si>
+    <t>Kepala Subbagian Pengelolaan Pengadaan Barang dan Jasa</t>
+  </si>
+  <si>
+    <t>Penata Tingkat I (III/d)</t>
+  </si>
+  <si>
+    <t>Pengelola Pengadaan Barang/Jasa Muda</t>
+  </si>
+  <si>
+    <t>PPBJ</t>
+  </si>
+  <si>
+    <t>Penata (III/c)</t>
+  </si>
+  <si>
+    <t>Penata Muda Tingkat I (III/b)</t>
+  </si>
+  <si>
+    <t>Pengelola Pengadaan Barang/Jasa Pertama</t>
+  </si>
+  <si>
+    <t>Penata Muda (III/a)</t>
+  </si>
+  <si>
+    <t>biodata_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -946,37 +851,21 @@
       <color theme="1"/>
       <name val="Fira Code Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -996,10 +885,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1317,7 +1212,7 @@
   <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2517,7 +2412,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>148</v>
@@ -2528,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2536,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2544,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2552,7 +2447,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2562,10 +2457,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6C9AD9-8A15-F64D-9116-6D8C1F10B5C1}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2576,11 +2471,10 @@
     <col min="4" max="4" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1">
+    <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>147</v>
       </c>
@@ -2588,62 +2482,59 @@
         <v>148</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2651,19 +2542,19 @@
         <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2671,341 +2562,299 @@
         <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1">
-      <c r="A7" s="5">
+      <c r="C6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="7" customFormat="1">
-      <c r="A8" s="7">
+      <c r="C7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G8" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="6" customFormat="1">
-      <c r="A9" s="6">
+      <c r="C8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G9" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="4">
+      <c r="C9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="6" customFormat="1">
-      <c r="A11" s="6">
+      <c r="C10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G11" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="7" customFormat="1">
-      <c r="A12" s="7">
+      <c r="C11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G12" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="4">
+      <c r="C12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1">
-      <c r="A14" s="5">
+      <c r="C13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1">
-      <c r="A15" s="5">
+      <c r="C14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16" s="4">
+      <c r="C15" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="6" customFormat="1">
-      <c r="A17" s="6">
+      <c r="C16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G17" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="7" customFormat="1">
-      <c r="A18" s="7">
+      <c r="C17" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G18" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1">
-      <c r="A19" s="5">
+      <c r="C18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G19" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="C19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3013,19 +2862,19 @@
         <v>167</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3033,19 +2882,19 @@
         <v>168</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3053,42 +2902,39 @@
         <v>169</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="7" customFormat="1">
-      <c r="A23" s="7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G23" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="C23" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3096,19 +2942,19 @@
         <v>171</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3116,42 +2962,39 @@
         <v>172</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="5" customFormat="1">
-      <c r="A26" s="5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G26" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="C26" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3159,42 +3002,39 @@
         <v>174</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="6" customFormat="1">
-      <c r="A28" s="6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G28" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="C28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3202,42 +3042,39 @@
         <v>176</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="7" customFormat="1">
-      <c r="A30" s="7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G30" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="C30" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3245,19 +3082,19 @@
         <v>178</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3265,19 +3102,19 @@
         <v>179</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3285,490 +3122,721 @@
         <v>180</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66B20B4-C50B-A348-8075-0A954FA09B20}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCD7C30-66B3-4E4E-9A97-32DA28FBADF9}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>239</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="C6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>240</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="C7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>241</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="C8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>242</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="6" customFormat="1">
-      <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="C9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>243</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="C10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2048</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154D1993-C473-5B47-A8FC-463ADB87D8C1}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2">
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="4" customFormat="1">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G40" s="4">
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4">
+        <v>100000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE17845C-FE87-AE4B-82AC-4CD90A959181}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="2">
-        <v>56</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>270</v>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiasep/modules/procurement/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FEEEC5-8D4F-E64D-9BF8-5B02807FFF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0A4149-BA1A-0D48-BDBC-BB80D5279612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{9E51C9CF-B660-4A40-AFAC-63592C93A788}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{9E51C9CF-B660-4A40-AFAC-63592C93A788}"/>
   </bookViews>
   <sheets>
     <sheet name="workunits" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="260">
   <si>
     <t>No</t>
   </si>
@@ -821,6 +821,9 @@
   </si>
   <si>
     <t>biodata_id</t>
+  </si>
+  <si>
+    <t>POKJA 5</t>
   </si>
 </sst>
 </file>
@@ -2397,10 +2400,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A25A07-38F1-A442-B251-E03267E02D46}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2448,6 +2451,14 @@
       </c>
       <c r="B5" s="2" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3752,7 +3763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE17845C-FE87-AE4B-82AC-4CD90A959181}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>

--- a/database/masters/data-seeder.xlsx
+++ b/database/masters/data-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiasep/modules/procurement/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0A4149-BA1A-0D48-BDBC-BB80D5279612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A791AA-112B-A243-885C-0DE4D6AF2E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{9E51C9CF-B660-4A40-AFAC-63592C93A788}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{9E51C9CF-B660-4A40-AFAC-63592C93A788}"/>
   </bookViews>
   <sheets>
     <sheet name="workunits" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="261">
   <si>
     <t>No</t>
   </si>
@@ -775,9 +775,6 @@
     <t>RENCANA KERJA DAN SYARAT-SYARAT (RKS)</t>
   </si>
   <si>
-    <t>SK PEJABAT PEMBUAT KOMITMENT (PPK)</t>
-  </si>
-  <si>
     <t>mime</t>
   </si>
   <si>
@@ -824,6 +821,12 @@
   </si>
   <si>
     <t>POKJA 5</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>.pdf</t>
   </si>
 </sst>
 </file>
@@ -2402,7 +2405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A25A07-38F1-A442-B251-E03267E02D46}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2458,7 +2461,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2516,10 +2519,10 @@
         <v>185</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>222</v>
@@ -2536,10 +2539,10 @@
         <v>184</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>223</v>
@@ -2556,13 +2559,13 @@
         <v>186</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2576,13 +2579,13 @@
         <v>187</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2596,13 +2599,13 @@
         <v>188</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2616,13 +2619,13 @@
         <v>189</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2636,13 +2639,13 @@
         <v>190</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2656,13 +2659,13 @@
         <v>191</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2676,13 +2679,13 @@
         <v>192</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2696,13 +2699,13 @@
         <v>193</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2716,13 +2719,13 @@
         <v>194</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2736,13 +2739,13 @@
         <v>195</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2756,13 +2759,13 @@
         <v>196</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2776,13 +2779,13 @@
         <v>197</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2796,13 +2799,13 @@
         <v>198</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2816,13 +2819,13 @@
         <v>199</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2836,13 +2839,13 @@
         <v>200</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2856,13 +2859,13 @@
         <v>201</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2876,13 +2879,13 @@
         <v>202</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2896,13 +2899,13 @@
         <v>203</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2916,13 +2919,13 @@
         <v>204</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2936,13 +2939,13 @@
         <v>205</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2956,13 +2959,13 @@
         <v>206</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2976,13 +2979,13 @@
         <v>207</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2996,13 +2999,13 @@
         <v>208</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3016,13 +3019,13 @@
         <v>209</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3036,13 +3039,13 @@
         <v>210</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3056,13 +3059,13 @@
         <v>211</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3076,13 +3079,13 @@
         <v>212</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3096,13 +3099,13 @@
         <v>213</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3116,13 +3119,13 @@
         <v>214</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3136,13 +3139,13 @@
         <v>215</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3177,7 +3180,7 @@
         <v>224</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3537,10 +3540,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCD7C30-66B3-4E4E-9A97-32DA28FBADF9}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3548,10 +3551,11 @@
     <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="6"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>216</v>
       </c>
@@ -3559,13 +3563,16 @@
         <v>148</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>243</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3573,13 +3580,16 @@
         <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" s="6">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="6">
         <v>2048</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3587,13 +3597,16 @@
         <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="6">
+        <v>244</v>
+      </c>
+      <c r="D3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="6">
         <v>2048</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3601,13 +3614,16 @@
         <v>237</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" s="6">
+        <v>244</v>
+      </c>
+      <c r="D4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="6">
         <v>2048</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3615,13 +3631,16 @@
         <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="6">
+        <v>244</v>
+      </c>
+      <c r="D5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="6">
         <v>2048</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3629,13 +3648,16 @@
         <v>239</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" s="6">
+        <v>244</v>
+      </c>
+      <c r="D6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="6">
         <v>2048</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3643,13 +3665,16 @@
         <v>240</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D7" s="6">
+        <v>244</v>
+      </c>
+      <c r="D7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="6">
         <v>2048</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3657,13 +3682,16 @@
         <v>241</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="6">
+        <v>244</v>
+      </c>
+      <c r="D8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="6">
         <v>2048</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3671,23 +3699,12 @@
         <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" s="6">
+        <v>244</v>
+      </c>
+      <c r="D9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="6">
         <v>2048</v>
       </c>
     </row>
@@ -3781,7 +3798,7 @@
         <v>148</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:3">
